--- a/Finflux Automation Excels/Client/4478-RBI-ACTCTR-MEET-WEEKLYonFRI-ACTGRP-ACTCLIENT-DISJLG02JAN-COLLSHEETON09JAN-SAVEON03JAN.xlsx
+++ b/Finflux Automation Excels/Client/4478-RBI-ACTCTR-MEET-WEEKLYonFRI-ACTGRP-ACTCLIENT-DISJLG02JAN-COLLSHEETON09JAN-SAVEON03JAN.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\finflux_automation_test\Finflux Automation Excels\Client\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="784" activeTab="6"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="784" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -271,9 +271,6 @@
     <t>Meetingcalendar1</t>
   </si>
   <si>
-    <t>error</t>
-  </si>
-  <si>
     <t>waittopageload</t>
   </si>
   <si>
@@ -281,6 +278,9 @@
   </si>
   <si>
     <t>FRI</t>
+  </si>
+  <si>
+    <t>error2</t>
   </si>
 </sst>
 </file>
@@ -291,7 +291,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -306,6 +306,15 @@
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="10"/>
@@ -396,7 +405,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -425,8 +434,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -444,10 +451,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -861,7 +884,7 @@
       <c r="A8" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="18" t="s">
         <v>3</v>
       </c>
     </row>
@@ -883,9 +906,9 @@
     </row>
     <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B11" s="21">
+        <v>82</v>
+      </c>
+      <c r="B11" s="19">
         <v>1</v>
       </c>
     </row>
@@ -894,7 +917,7 @@
         <v>74</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -932,10 +955,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="17" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1016,8 +1039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1026,15 +1049,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="15" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
         <v>63</v>
       </c>
       <c r="B2" s="10">
@@ -1042,15 +1065,15 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="16" t="s">
         <v>65</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1058,7 +1081,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="16" t="s">
         <v>66</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1066,15 +1089,15 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="16" t="s">
         <v>80</v>
       </c>
       <c r="B7" s="10">
@@ -1091,7 +1114,7 @@
     </row>
     <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B9" s="2">
         <v>3000</v>
@@ -1099,9 +1122,9 @@
     </row>
     <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B10" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1256,80 +1279,80 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="22">
+      <c r="A2" s="20">
         <v>10000</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="21">
         <v>1647.52</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22">
+        <v>0</v>
+      </c>
+      <c r="E2" s="21">
         <v>8352.48</v>
       </c>
-      <c r="F2" s="23">
+      <c r="F2" s="21">
         <v>8352.48</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="24">
+      <c r="A3" s="22">
         <v>150.63999999999999</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="22">
         <v>44.26</v>
       </c>
-      <c r="C3" s="24">
-        <v>0</v>
-      </c>
-      <c r="D3" s="24">
-        <v>0</v>
-      </c>
-      <c r="E3" s="24">
+      <c r="C3" s="22">
+        <v>0</v>
+      </c>
+      <c r="D3" s="22">
+        <v>0</v>
+      </c>
+      <c r="E3" s="22">
         <v>106.38</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="22">
         <v>106.38</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="24">
-        <v>0</v>
-      </c>
-      <c r="B4" s="24">
-        <v>0</v>
-      </c>
-      <c r="C4" s="24">
-        <v>0</v>
-      </c>
-      <c r="D4" s="24">
-        <v>0</v>
-      </c>
-      <c r="E4" s="24">
-        <v>0</v>
-      </c>
-      <c r="F4" s="24">
+      <c r="A4" s="22">
+        <v>0</v>
+      </c>
+      <c r="B4" s="22">
+        <v>0</v>
+      </c>
+      <c r="C4" s="22">
+        <v>0</v>
+      </c>
+      <c r="D4" s="22">
+        <v>0</v>
+      </c>
+      <c r="E4" s="22">
+        <v>0</v>
+      </c>
+      <c r="F4" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="24">
-        <v>0</v>
-      </c>
-      <c r="B5" s="24">
-        <v>0</v>
-      </c>
-      <c r="C5" s="24">
-        <v>0</v>
-      </c>
-      <c r="D5" s="24">
-        <v>0</v>
-      </c>
-      <c r="E5" s="24">
-        <v>0</v>
-      </c>
-      <c r="F5" s="24">
+      <c r="A5" s="22">
+        <v>0</v>
+      </c>
+      <c r="B5" s="22">
+        <v>0</v>
+      </c>
+      <c r="C5" s="22">
+        <v>0</v>
+      </c>
+      <c r="D5" s="22">
+        <v>0</v>
+      </c>
+      <c r="E5" s="22">
+        <v>0</v>
+      </c>
+      <c r="F5" s="22">
         <v>0</v>
       </c>
     </row>
@@ -1342,624 +1365,626 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="26"/>
+    <col min="3" max="3" width="9.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11" t="s">
+      <c r="N1" s="24"/>
+      <c r="O1" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="Q1" s="25" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="25">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="28">
         <v>42006</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="22">
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="29">
         <v>10000</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="24">
-        <v>0</v>
-      </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="24">
-        <v>0</v>
-      </c>
-      <c r="L2" s="24">
-        <v>0</v>
-      </c>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="30">
+        <v>0</v>
+      </c>
+      <c r="J2" s="27"/>
+      <c r="K2" s="30">
+        <v>0</v>
+      </c>
+      <c r="L2" s="30">
+        <v>0</v>
+      </c>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="24">
+      <c r="A3" s="30">
         <v>1</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="30">
         <v>7</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="28">
         <v>42013</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="28">
         <v>42020</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="24">
+      <c r="E3" s="31"/>
+      <c r="F3" s="30">
         <v>822.81</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G3" s="32">
         <v>9177.19</v>
       </c>
-      <c r="H3" s="24">
+      <c r="H3" s="30">
         <v>23.08</v>
       </c>
-      <c r="I3" s="24">
-        <v>0</v>
-      </c>
-      <c r="J3" s="24">
-        <v>0</v>
-      </c>
-      <c r="K3" s="24">
-        <v>845.89</v>
-      </c>
-      <c r="L3" s="24">
-        <v>845.89</v>
-      </c>
-      <c r="M3" s="24">
-        <v>0</v>
-      </c>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24">
-        <v>845.89</v>
-      </c>
-      <c r="Q3" s="24">
+      <c r="I3" s="30">
+        <v>0</v>
+      </c>
+      <c r="J3" s="30">
+        <v>0</v>
+      </c>
+      <c r="K3" s="30">
+        <v>845.89</v>
+      </c>
+      <c r="L3" s="30">
+        <v>845.89</v>
+      </c>
+      <c r="M3" s="30">
+        <v>0</v>
+      </c>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30">
+        <v>845.89</v>
+      </c>
+      <c r="Q3" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="24">
+      <c r="A4" s="30">
         <v>2</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="30">
         <v>7</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="28">
         <v>42020</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="28">
         <v>42020</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="24">
+      <c r="E4" s="31"/>
+      <c r="F4" s="30">
         <v>824.71</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="32">
         <v>8352.48</v>
       </c>
-      <c r="H4" s="24">
+      <c r="H4" s="30">
         <v>21.18</v>
       </c>
-      <c r="I4" s="24">
-        <v>0</v>
-      </c>
-      <c r="J4" s="24">
-        <v>0</v>
-      </c>
-      <c r="K4" s="24">
-        <v>845.89</v>
-      </c>
-      <c r="L4" s="24">
-        <v>845.89</v>
-      </c>
-      <c r="M4" s="24">
-        <v>0</v>
-      </c>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="24">
+      <c r="I4" s="30">
+        <v>0</v>
+      </c>
+      <c r="J4" s="30">
+        <v>0</v>
+      </c>
+      <c r="K4" s="30">
+        <v>845.89</v>
+      </c>
+      <c r="L4" s="30">
+        <v>845.89</v>
+      </c>
+      <c r="M4" s="30">
+        <v>0</v>
+      </c>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="24">
+      <c r="A5" s="30">
         <v>3</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="30">
         <v>7</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="28">
         <v>42027</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="24">
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="30">
         <v>826.62</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="32">
         <v>7525.86</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="30">
         <v>19.27</v>
       </c>
-      <c r="I5" s="24">
-        <v>0</v>
-      </c>
-      <c r="J5" s="24">
-        <v>0</v>
-      </c>
-      <c r="K5" s="24">
-        <v>845.89</v>
-      </c>
-      <c r="L5" s="24">
-        <v>0</v>
-      </c>
-      <c r="M5" s="24">
-        <v>0</v>
-      </c>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="24">
+      <c r="I5" s="30">
+        <v>0</v>
+      </c>
+      <c r="J5" s="30">
+        <v>0</v>
+      </c>
+      <c r="K5" s="30">
+        <v>845.89</v>
+      </c>
+      <c r="L5" s="30">
+        <v>0</v>
+      </c>
+      <c r="M5" s="30">
+        <v>0</v>
+      </c>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="30">
         <v>845.89</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="24">
+      <c r="A6" s="30">
         <v>4</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="30">
         <v>7</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="28">
         <v>42034</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="24">
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="30">
         <v>828.52</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="32">
         <v>6697.34</v>
       </c>
-      <c r="H6" s="24">
+      <c r="H6" s="30">
         <v>17.37</v>
       </c>
-      <c r="I6" s="24">
-        <v>0</v>
-      </c>
-      <c r="J6" s="24">
-        <v>0</v>
-      </c>
-      <c r="K6" s="24">
-        <v>845.89</v>
-      </c>
-      <c r="L6" s="24">
-        <v>0</v>
-      </c>
-      <c r="M6" s="24">
-        <v>0</v>
-      </c>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="24">
+      <c r="I6" s="30">
+        <v>0</v>
+      </c>
+      <c r="J6" s="30">
+        <v>0</v>
+      </c>
+      <c r="K6" s="30">
+        <v>845.89</v>
+      </c>
+      <c r="L6" s="30">
+        <v>0</v>
+      </c>
+      <c r="M6" s="30">
+        <v>0</v>
+      </c>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="30">
         <v>845.89</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="24">
+      <c r="A7" s="30">
         <v>5</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="30">
         <v>7</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="28">
         <v>42041</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="24">
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="30">
         <v>830.43</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="32">
         <v>5866.91</v>
       </c>
-      <c r="H7" s="24">
+      <c r="H7" s="30">
         <v>15.46</v>
       </c>
-      <c r="I7" s="24">
-        <v>0</v>
-      </c>
-      <c r="J7" s="24">
-        <v>0</v>
-      </c>
-      <c r="K7" s="24">
-        <v>845.89</v>
-      </c>
-      <c r="L7" s="24">
-        <v>0</v>
-      </c>
-      <c r="M7" s="24">
-        <v>0</v>
-      </c>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="24">
+      <c r="I7" s="30">
+        <v>0</v>
+      </c>
+      <c r="J7" s="30">
+        <v>0</v>
+      </c>
+      <c r="K7" s="30">
+        <v>845.89</v>
+      </c>
+      <c r="L7" s="30">
+        <v>0</v>
+      </c>
+      <c r="M7" s="30">
+        <v>0</v>
+      </c>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="30">
         <v>845.89</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="24">
+      <c r="A8" s="30">
         <v>6</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="30">
         <v>7</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="28">
         <v>42048</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="24">
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="30">
         <v>832.35</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="32">
         <v>5034.5600000000004</v>
       </c>
-      <c r="H8" s="24">
+      <c r="H8" s="30">
         <v>13.54</v>
       </c>
-      <c r="I8" s="24">
-        <v>0</v>
-      </c>
-      <c r="J8" s="24">
-        <v>0</v>
-      </c>
-      <c r="K8" s="24">
-        <v>845.89</v>
-      </c>
-      <c r="L8" s="24">
-        <v>0</v>
-      </c>
-      <c r="M8" s="24">
-        <v>0</v>
-      </c>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="24">
+      <c r="I8" s="30">
+        <v>0</v>
+      </c>
+      <c r="J8" s="30">
+        <v>0</v>
+      </c>
+      <c r="K8" s="30">
+        <v>845.89</v>
+      </c>
+      <c r="L8" s="30">
+        <v>0</v>
+      </c>
+      <c r="M8" s="30">
+        <v>0</v>
+      </c>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="30">
         <v>845.89</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="24">
+      <c r="A9" s="30">
         <v>7</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="30">
         <v>7</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="28">
         <v>42055</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="24">
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="30">
         <v>834.27</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="32">
         <v>4200.29</v>
       </c>
-      <c r="H9" s="24">
+      <c r="H9" s="30">
         <v>11.62</v>
       </c>
-      <c r="I9" s="24">
-        <v>0</v>
-      </c>
-      <c r="J9" s="24">
-        <v>0</v>
-      </c>
-      <c r="K9" s="24">
-        <v>845.89</v>
-      </c>
-      <c r="L9" s="24">
-        <v>0</v>
-      </c>
-      <c r="M9" s="24">
-        <v>0</v>
-      </c>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="24">
+      <c r="I9" s="30">
+        <v>0</v>
+      </c>
+      <c r="J9" s="30">
+        <v>0</v>
+      </c>
+      <c r="K9" s="30">
+        <v>845.89</v>
+      </c>
+      <c r="L9" s="30">
+        <v>0</v>
+      </c>
+      <c r="M9" s="30">
+        <v>0</v>
+      </c>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="30">
         <v>845.89</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="24">
+      <c r="A10" s="30">
         <v>8</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="30">
         <v>7</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="28">
         <v>42062</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="24">
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="30">
         <v>836.2</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="32">
         <v>3364.09</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="30">
         <v>9.69</v>
       </c>
-      <c r="I10" s="24">
-        <v>0</v>
-      </c>
-      <c r="J10" s="24">
-        <v>0</v>
-      </c>
-      <c r="K10" s="24">
-        <v>845.89</v>
-      </c>
-      <c r="L10" s="24">
-        <v>0</v>
-      </c>
-      <c r="M10" s="24">
-        <v>0</v>
-      </c>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="24">
+      <c r="I10" s="30">
+        <v>0</v>
+      </c>
+      <c r="J10" s="30">
+        <v>0</v>
+      </c>
+      <c r="K10" s="30">
+        <v>845.89</v>
+      </c>
+      <c r="L10" s="30">
+        <v>0</v>
+      </c>
+      <c r="M10" s="30">
+        <v>0</v>
+      </c>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="30">
         <v>845.89</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="24">
+      <c r="A11" s="30">
         <v>9</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B11" s="30">
         <v>7</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="28">
         <v>42069</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="24">
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="30">
         <v>838.13</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="32">
         <v>2525.96</v>
       </c>
-      <c r="H11" s="24">
+      <c r="H11" s="30">
         <v>7.76</v>
       </c>
-      <c r="I11" s="24">
-        <v>0</v>
-      </c>
-      <c r="J11" s="24">
-        <v>0</v>
-      </c>
-      <c r="K11" s="24">
-        <v>845.89</v>
-      </c>
-      <c r="L11" s="24">
-        <v>0</v>
-      </c>
-      <c r="M11" s="24">
-        <v>0</v>
-      </c>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="24">
+      <c r="I11" s="30">
+        <v>0</v>
+      </c>
+      <c r="J11" s="30">
+        <v>0</v>
+      </c>
+      <c r="K11" s="30">
+        <v>845.89</v>
+      </c>
+      <c r="L11" s="30">
+        <v>0</v>
+      </c>
+      <c r="M11" s="30">
+        <v>0</v>
+      </c>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="30">
         <v>845.89</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="24">
+      <c r="A12" s="30">
         <v>10</v>
       </c>
-      <c r="B12" s="24">
+      <c r="B12" s="30">
         <v>7</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="28">
         <v>42076</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="24">
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="30">
         <v>840.06</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="32">
         <v>1685.9</v>
       </c>
-      <c r="H12" s="24">
+      <c r="H12" s="30">
         <v>5.83</v>
       </c>
-      <c r="I12" s="24">
-        <v>0</v>
-      </c>
-      <c r="J12" s="24">
-        <v>0</v>
-      </c>
-      <c r="K12" s="24">
-        <v>845.89</v>
-      </c>
-      <c r="L12" s="24">
-        <v>0</v>
-      </c>
-      <c r="M12" s="24">
-        <v>0</v>
-      </c>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="24">
+      <c r="I12" s="30">
+        <v>0</v>
+      </c>
+      <c r="J12" s="30">
+        <v>0</v>
+      </c>
+      <c r="K12" s="30">
+        <v>845.89</v>
+      </c>
+      <c r="L12" s="30">
+        <v>0</v>
+      </c>
+      <c r="M12" s="30">
+        <v>0</v>
+      </c>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="30">
         <v>845.89</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="24">
+      <c r="A13" s="30">
         <v>11</v>
       </c>
-      <c r="B13" s="24">
+      <c r="B13" s="30">
         <v>7</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C13" s="28">
         <v>42083</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="24">
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="30">
         <v>842</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="30">
         <v>843.9</v>
       </c>
-      <c r="H13" s="24">
+      <c r="H13" s="30">
         <v>3.89</v>
       </c>
-      <c r="I13" s="24">
-        <v>0</v>
-      </c>
-      <c r="J13" s="24">
-        <v>0</v>
-      </c>
-      <c r="K13" s="24">
-        <v>845.89</v>
-      </c>
-      <c r="L13" s="24">
-        <v>0</v>
-      </c>
-      <c r="M13" s="24">
-        <v>0</v>
-      </c>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="24">
+      <c r="I13" s="30">
+        <v>0</v>
+      </c>
+      <c r="J13" s="30">
+        <v>0</v>
+      </c>
+      <c r="K13" s="30">
+        <v>845.89</v>
+      </c>
+      <c r="L13" s="30">
+        <v>0</v>
+      </c>
+      <c r="M13" s="30">
+        <v>0</v>
+      </c>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="30">
         <v>845.89</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="24">
+      <c r="A14" s="30">
         <v>12</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B14" s="30">
         <v>7</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C14" s="28">
         <v>42090</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="24">
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="30">
         <v>843.9</v>
       </c>
-      <c r="G14" s="24">
-        <v>0</v>
-      </c>
-      <c r="H14" s="24">
+      <c r="G14" s="30">
+        <v>0</v>
+      </c>
+      <c r="H14" s="30">
         <v>1.95</v>
       </c>
-      <c r="I14" s="24">
-        <v>0</v>
-      </c>
-      <c r="J14" s="24">
-        <v>0</v>
-      </c>
-      <c r="K14" s="24">
+      <c r="I14" s="30">
+        <v>0</v>
+      </c>
+      <c r="J14" s="30">
+        <v>0</v>
+      </c>
+      <c r="K14" s="30">
         <v>845.85</v>
       </c>
-      <c r="L14" s="24">
-        <v>0</v>
-      </c>
-      <c r="M14" s="24">
-        <v>0</v>
-      </c>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="24">
+      <c r="L14" s="30">
+        <v>0</v>
+      </c>
+      <c r="M14" s="30">
+        <v>0</v>
+      </c>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="30">
         <v>845.85</v>
       </c>
     </row>
@@ -2017,7 +2042,7 @@
       <c r="B2" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="14">
         <v>42005</v>
       </c>
       <c r="D2" s="13" t="s">
